--- a/数据整理/stocks/A股/上证主板/603985-恒润股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603985-恒润股份.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>79.25</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>92.00</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2.92</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.3141</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
       </c>
     </row>
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000363</t>
+          <t>020010</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国泰聚信价值优势灵活配置混合C</t>
+          <t>国泰金牛创新混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>92.00</t>
+          <t>20.76</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.92</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>10</v>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8159</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>020010</t>
+          <t>007835</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>国泰金牛创新混合</t>
+          <t>国泰鑫睿混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>93.28</t>
+          <t>18.28</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.93</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>8</v>
+          <t>79.41</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7422</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>007835</t>
+          <t>000363</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>国泰鑫睿混合</t>
+          <t>国泰聚信价值优势灵活配置混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>79.41</t>
+          <t>19.72</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.06</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>7</v>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5758</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -609,7 +659,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -630,15 +680,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -660,15 +720,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>53.30</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>91.88</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>3.86</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0574</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>8</v>
       </c>
     </row>
@@ -688,15 +758,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>19.72</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>91.88</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>3.86</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7612</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>8</v>
       </c>
     </row>
@@ -706,26 +786,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005244</t>
+          <t>020010</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>国泰聚优价值灵活配置混合A</t>
+          <t>国泰金牛创新混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>91.24</t>
+          <t>16.27</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.49</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>9</v>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5662</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -734,26 +824,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005245</t>
+          <t>007835</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>国泰聚优价值灵活配置混合C</t>
+          <t>国泰鑫睿混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>91.24</t>
+          <t>13.43</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.49</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>9</v>
+          <t>79.30</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5399</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -762,26 +862,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>020010</t>
+          <t>005244</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>国泰金牛创新混合</t>
+          <t>国泰聚优价值灵活配置混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>91.25</t>
+          <t>6.63</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.48</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>7</v>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2314</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -790,25 +900,35 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>001917</t>
+          <t>005245</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>招商量化精选股票A</t>
+          <t>国泰聚优价值灵活配置混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>93.02</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.33</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>9</v>
       </c>
     </row>
@@ -818,25 +938,35 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>007950</t>
+          <t>001917</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>招商量化精选股票C</t>
+          <t>招商量化精选股票A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>93.02</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1.33</t>
         </is>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>9</v>
       </c>
     </row>
@@ -846,26 +976,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>007835</t>
+          <t>007950</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>国泰鑫睿混合</t>
+          <t>招商量化精选股票C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>79.30</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4.02</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>5</v>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/603985-恒润股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603985-恒润股份.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1011,4 +1012,98 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007835</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰鑫睿混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.54</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3047</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603985-恒润股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603985-恒润股份.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1106,4 +1107,516 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>040007</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安中小盘成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>22.89</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7119</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001072</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安智能装备主题股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.20</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.50</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3045</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011765</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴银高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0512</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519677</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银河定投宝中证腾讯济安价值100A股指数</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.85</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0453</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009140</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>永赢竞争力精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.80</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0426</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>160722</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实惠泽灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001760</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.10</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011766</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>兴银高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009855</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中加新兴成长混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009856</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中加新兴成长混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001448</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华商双翼平衡混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>40.63</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005146</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>兴银丰润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603985-恒润股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603985-恒润股份.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1619,4 +1620,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603985-恒润股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603985-恒润股份.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1628,7 +1629,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1639,17 +1640,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1659,14 +1680,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.25</v>
+          <t>006299</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>恒越核心精选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>69.05</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.01</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8367</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1675,14 +1718,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.3</v>
+          <t>007193</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>恒越核心精选混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>31.91</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.01</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8488</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1691,14 +1756,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>8</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.2</v>
+          <t>010622</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>恒越成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>24.39</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.85</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6927</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1707,13 +1794,1063 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>010701</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>恒越内需驱动混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.53</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.89</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3680</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000592</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>建信改革红利股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.19</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2914</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003165</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华弘嘉灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.79</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2848</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010623</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>恒越成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.85</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2116</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011142</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>创金合信新材料新能源股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>84.83</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1971</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>560003</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>益民创新优势混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>84.50</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1902</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005416</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华尊惠18个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>36.72</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1144</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004128</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隆灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1113</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011143</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>创金合信新材料新能源股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>84.83</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0905</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010702</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>恒越内需驱动混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>87.89</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0889</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009231</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华安和混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>28.91</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0825</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>519677</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>银河定投宝中证腾讯济安价值100A股指数</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0641</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005075</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富国研究量化精选混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0638</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001662</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>创金合信沪港深研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0521</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009668</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏华安庆混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>30.82</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0382</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009230</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鹏华安和混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>28.91</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009667</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>鹏华安庆混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>30.82</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>003166</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>鹏华弘嘉灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>167702</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>德邦量化优选股票(LOF)A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>004112</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>创金合信国企活力混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>167703</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>德邦量化优选股票(LOF)C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005417</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>鹏华尊惠18个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>36.72</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001866</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>北信瑞丰新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>000972</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>新华万银多元策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>007040</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隆灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>28</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.75</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>4</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>4.45</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603985-恒润股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603985-恒润股份.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2749,7 +2750,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2760,17 +2761,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2780,14 +2801,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>28</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.75</v>
+          <t>005821</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>万家新机遇龙头企业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>23.23</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>56.20</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7689</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -2796,14 +2839,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>12</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.25</v>
+          <t>013960</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家新机遇成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.29</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>49.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4519</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -2812,14 +2877,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.3</v>
+          <t>168501</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>北信瑞丰产业升级多策略混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1481</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -2828,14 +2915,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>8</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4.2</v>
+          <t>013961</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家新机遇成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>49.51</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1064</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -2844,13 +2953,319 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>001056</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>北信瑞丰健康生活主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.03</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0592</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519677</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银河定投宝中证腾讯济安价值100A股指数</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0348</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005569</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中融智选红利股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001866</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>北信瑞丰新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005570</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中融智选红利股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>28</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.75</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>8</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>4</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>4.45</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603985-恒润股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603985-恒润股份.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3148,7 +3149,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3159,17 +3160,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3179,14 +3200,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>9</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.58</v>
+          <t>013184</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发恒阳一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>20.39</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>36.27</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1733</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -3195,14 +3238,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>28</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.75</v>
+          <t>011175</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>平安恒鑫混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>27.32</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1219</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -3211,14 +3276,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>12</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.25</v>
+          <t>009215</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达瑞川灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.52</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>31.21</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0904</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -3227,14 +3314,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.3</v>
+          <t>013185</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发恒阳一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.93</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>36.27</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0844</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -3243,14 +3352,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>8</v>
-      </c>
-      <c r="D6" t="n">
-        <v>4.2</v>
+          <t>012661</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发恒益一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>29.08</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0571</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -3259,13 +3390,449 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>519097</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>新华中小市值优选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009671</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>平安恒泽混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>25.18</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011176</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>平安恒鑫混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>27.32</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005569</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中融智选红利股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.56</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009672</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>平安恒泽混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>25.18</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012662</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发恒益一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>29.08</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009216</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>易方达瑞川灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>31.21</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005570</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中融智选红利股票C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.56</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>13</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>28</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.75</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>12</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>8</v>
+      </c>
+      <c r="D7" t="n">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>4</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>4.45</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603985-恒润股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603985-恒润股份.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D2" t="n">
-        <v>0.62</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D3" t="n">
-        <v>1.58</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>5.75</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="D5" t="n">
-        <v>1.25</v>
+        <v>5.75</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>4.2</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>8</v>
+      </c>
+      <c r="D8" t="n">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>4</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>4.45</v>
       </c>
     </row>
@@ -600,6 +617,630 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>860001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>光大阳光混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.45</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2859</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007040</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隆灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2366</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>860052</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合B</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0689</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>860053</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0512</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004128</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隆灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0356</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011351</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>金鹰年年邮益一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>34.33</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519097</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>新华中小市值优选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>67.35</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>860016</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000757</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华富智慧城市灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>84.73</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005569</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中融智选红利股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.04</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>860036</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>光大阳光混合B</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.45</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>410006</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华富策略精选混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>70.87</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011352</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>金鹰年年邮益一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>34.33</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005570</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中融智选红利股票C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.04</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>860037</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>光大阳光混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.45</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1149,7 +1790,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1547,7 +2188,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2667,7 +3308,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3179,7 +3820,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3273,7 +3914,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3633,7 +4274,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/603985-恒润股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603985-恒润股份.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>15</v>
       </c>
       <c r="D2" t="n">
-        <v>0.78</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D3" t="n">
-        <v>0.62</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D4" t="n">
-        <v>1.58</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D5" t="n">
-        <v>5.75</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="D6" t="n">
-        <v>1.25</v>
+        <v>5.75</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>4.2</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="9">
@@ -601,18 +602,242 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>8</v>
+      </c>
+      <c r="D9" t="n">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>4</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>4.45</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000362</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰聚信价值优势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>79.25</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.3141</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>020010</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰金牛创新混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>20.76</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8159</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007835</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰鑫睿混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>18.28</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>79.41</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7422</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000363</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰聚信价值优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>19.72</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5758</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -673,32 +898,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>860001</t>
+          <t>162201</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>光大阳光混合A</t>
+          <t>泰达宏利成长混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>8.51</t>
+          <t>14.63</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.45</t>
+          <t>94.62</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.36</t>
+          <t>4.22</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2859</t>
+          <t>0.6174</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -711,32 +936,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>007040</t>
+          <t>014023</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>新疆前海联合泳隆灵活配置混合C</t>
+          <t>泰达宏利景气领航两年持有混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>6.78</t>
+          <t>13.41</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.50</t>
+          <t>93.92</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.49</t>
+          <t>3.61</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2366</t>
+          <t>0.4841</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -749,36 +974,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>860052</t>
+          <t>860001</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>光大阳光启明星创新驱动主题混合B</t>
+          <t>光大阳光混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.63</t>
+          <t>9.17</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>90.71</t>
+          <t>87.55</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.23</t>
+          <t>3.71</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0689</t>
+          <t>0.3402</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -787,36 +1012,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>860053</t>
+          <t>007040</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>光大阳光启明星创新驱动主题混合C</t>
+          <t>新疆前海联合泳隆灵活配置混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.21</t>
+          <t>7.66</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>90.71</t>
+          <t>93.78</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.23</t>
+          <t>4.02</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0512</t>
+          <t>0.3079</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -825,32 +1050,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>004128</t>
+          <t>010135</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>新疆前海联合泳隆灵活配置混合A</t>
+          <t>泰达宏利高研发创新6个月持有期混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>91.50</t>
+          <t>87.03</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.49</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0356</t>
+          <t>0.1326</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -863,36 +1088,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>011351</t>
+          <t>860052</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>金鹰年年邮益一年持有期混合A</t>
+          <t>光大阳光启明星创新驱动主题混合B</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3.43</t>
+          <t>1.73</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>34.33</t>
+          <t>87.94</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>4.49</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0278</t>
+          <t>0.0777</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -901,36 +1126,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>519097</t>
+          <t>009490</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>新华中小市值优选混合</t>
+          <t>泰康科技创新一年定期开放混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>2.21</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>67.35</t>
+          <t>93.49</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.14</t>
+          <t>2.90</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0223</t>
+          <t>0.0641</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -939,32 +1164,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>860016</t>
+          <t>860053</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>光大阳光启明星创新驱动主题混合A</t>
+          <t>光大阳光启明星创新驱动主题混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>90.71</t>
+          <t>87.94</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.23</t>
+          <t>4.49</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0178</t>
+          <t>0.0566</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -977,36 +1202,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>000757</t>
+          <t>010136</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>华富智慧城市灵活配置混合</t>
+          <t>泰达宏利高研发创新6个月持有期混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.50</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>84.73</t>
+          <t>87.03</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2.82</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0141</t>
+          <t>0.0534</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -1015,36 +1240,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>005569</t>
+          <t>004128</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>中融智选红利股票A</t>
+          <t>新疆前海联合泳隆灵活配置混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>92.04</t>
+          <t>93.78</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>4.19</t>
+          <t>4.02</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0088</t>
+          <t>0.0338</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -1053,36 +1278,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>860036</t>
+          <t>860016</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>光大阳光混合B</t>
+          <t>光大阳光启明星创新驱动主题混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>90.45</t>
+          <t>87.94</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3.36</t>
+          <t>4.49</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0030</t>
+          <t>0.0202</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
@@ -1091,36 +1316,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>410006</t>
+          <t>005569</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>华富策略精选混合</t>
+          <t>中融智选红利股票A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>70.87</t>
+          <t>93.07</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>4.48</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0029</t>
+          <t>0.0081</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -1129,36 +1354,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>011352</t>
+          <t>860036</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>金鹰年年邮益一年持有期混合C</t>
+          <t>光大阳光混合B</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>34.33</t>
+          <t>87.55</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>3.71</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0022</t>
+          <t>0.0037</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -1182,12 +1407,12 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>92.04</t>
+          <t>93.07</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>4.19</t>
+          <t>4.48</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1196,7 +1421,7 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -1220,19 +1445,19 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>90.45</t>
+          <t>87.55</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>3.36</t>
+          <t>3.71</t>
         </is>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1241,6 +1466,630 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>860001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>光大阳光混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.45</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2859</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007040</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隆灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2366</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>860052</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合B</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0689</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>860053</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0512</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004128</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隆灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0356</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011351</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>金鹰年年邮益一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>34.33</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519097</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>新华中小市值优选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>67.35</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>860016</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000757</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华富智慧城市灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>84.73</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005569</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中融智选红利股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.04</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>860036</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>光大阳光混合B</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.45</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>410006</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华富策略精选混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>70.87</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011352</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>金鹰年年邮益一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>34.33</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005570</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中融智选红利股票C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.04</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>860037</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>光大阳光混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.45</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1790,7 +2639,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2188,7 +3037,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3308,7 +4157,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3820,7 +4669,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3914,7 +4763,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4272,212 +5121,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>000362</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>国泰聚信价值优势灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>79.25</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.00</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.92</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.3141</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>020010</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>国泰金牛创新混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>20.76</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.28</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.93</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.8159</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>007835</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>国泰鑫睿混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>18.28</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>79.41</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.06</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.7422</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>000363</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>国泰聚信价值优势灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>19.72</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>92.00</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.92</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.5758</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>